--- a/docs/OVW Sheets/OVWDemo_productlanding.xlsx
+++ b/docs/OVW Sheets/OVWDemo_productlanding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agarnepu\Desktop\Nov-23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 9\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ja_jp" sheetId="48" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="441">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/telepresence/index.html</t>
   </si>
@@ -1385,6 +1385,15 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/UA/uk/solutions/collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/solucoes/datacenter/index.html​</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/solucoes/collaboration/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/solucoes/borderless/index.html</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1433,6 +1442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1473,6 +1488,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1756,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -8486,8 +8508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,8 +8618,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>69</v>
+      <c r="A8" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -8610,8 +8632,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>70</v>
+      <c r="A9" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -8624,8 +8646,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
+      <c r="A10" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -8639,18 +8661,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
-    <hyperlink ref="A1" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-    <hyperlink ref="A5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://www.cisco.com/web/BR/solucoes/datacenter/index.html"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/docs/OVW Sheets/OVWDemo_productlanding.xlsx
+++ b/docs/OVW Sheets/OVWDemo_productlanding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 9\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec15\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="34" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="ja_jp" sheetId="48" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="526">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/telepresence/index.html</t>
   </si>
@@ -1394,6 +1394,261 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/BR/solucoes/borderless/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/JP/product/hs/ucs/index.html</t>
+  </si>
+  <si>
+    <t>servers-unified-computing</t>
+  </si>
+  <si>
+    <t>index-var8</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/ar/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/produtos/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/unified_computing/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/nl/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/unified_computing/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/unified_computing/index_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/de/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/fr/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DK/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/products/FR/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ES/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/tc/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IL/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IN/products/unified_computing/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IT/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NO/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NL/producten/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PL/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PT/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SE/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SG/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TH/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TR/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TW/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ZA/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ANZ/products/unified_computing/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AT/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/fr/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/JP/solution/isp/index.html</t>
+  </si>
+  <si>
+    <t>service-provider</t>
+  </si>
+  <si>
+    <t>index-var12</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/UK/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/soluciones/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/solucoes/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/ar/solutions/service.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/nl/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/solutions/sp/index_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/de/solution/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/fr/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DK/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/solutions/FR/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ES/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/solution_tc/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ID/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IL/solutions/service.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IN/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IT/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KR/networking/service_provider/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/solutions/service.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NL/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NO/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PL/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PT/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SE/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SG/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TH/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TR/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TW/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ZA/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ANZ/netsol/service.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AT/solutions/sp/sp_home.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/fr/solutions/sp/sp_home.html</t>
   </si>
 </sst>
 </file>
@@ -1776,16 +2031,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1926,6 +2181,34 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1941,6 +2224,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1948,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,6 +2386,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2113,6 +2426,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2187,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,6 +2655,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2352,6 +2695,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2359,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,6 +2857,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2524,6 +2897,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2531,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,6 +3059,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2696,6 +3099,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2703,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,6 +3261,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -2868,6 +3301,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,6 +3530,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3107,6 +3570,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3114,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,6 +3732,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3279,6 +3772,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3286,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,6 +3934,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
@@ -3451,6 +3974,8 @@
     <hyperlink ref="A9" r:id="rId8"/>
     <hyperlink ref="A10" r:id="rId9"/>
     <hyperlink ref="A1" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3458,10 +3983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,6 +4136,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3623,6 +4176,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3630,10 +4185,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,6 +4338,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -3795,6 +4378,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3936,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,6 +4674,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4101,6 +4714,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4108,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,6 +4876,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4273,6 +4916,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4347,10 +4992,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,11 +5047,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4414,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,6 +5227,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4579,6 +5267,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4586,10 +5276,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,6 +5429,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4751,6 +5469,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4758,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4911,6 +5631,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -4923,6 +5671,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4930,10 +5680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,6 +5833,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5095,6 +5873,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5102,10 +5882,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,6 +6035,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5267,6 +6075,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://www.cisco.com/web/KR/products/pc/unified_computing/services.html"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5274,10 +6084,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5427,6 +6237,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5439,6 +6277,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5446,10 +6286,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,6 +6439,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5611,6 +6479,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5618,10 +6488,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,6 +6641,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5783,6 +6681,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5790,10 +6690,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,6 +6843,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -5955,6 +6883,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5962,10 +6892,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6115,6 +7045,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -6127,6 +7085,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6201,10 +7161,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,6 +7314,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -6366,6 +7354,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6373,10 +7363,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6526,6 +7516,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -6538,6 +7556,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6545,10 +7565,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6698,6 +7718,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -6710,6 +7758,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6717,10 +7767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6870,6 +7920,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -6882,6 +7960,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6889,10 +7969,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7042,6 +8122,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -7054,6 +8162,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7061,10 +8171,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7214,6 +8324,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -7226,6 +8364,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7233,10 +8373,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,6 +8526,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -7398,6 +8566,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7405,10 +8575,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7558,6 +8728,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -7570,6 +8768,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7645,10 +8845,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7799,6 +8999,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -7811,6 +9039,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7818,16 +9048,16 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7968,6 +9198,34 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7983,6 +9241,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7990,16 +9250,16 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8140,6 +9400,34 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8155,6 +9443,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8162,10 +9452,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8315,6 +9605,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -8327,6 +9645,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8334,10 +9654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8487,6 +9807,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -8499,6 +9847,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8506,16 +9856,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8656,6 +10006,34 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8671,18 +10049,20 @@
     <hyperlink ref="A8" r:id="rId8" display="http://www.cisco.com/web/BR/solucoes/datacenter/index.html"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D10"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8832,6 +10212,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -8844,6 +10252,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8851,9 +10261,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8999,6 +10411,34 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9014,18 +10454,20 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9175,6 +10617,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -9187,6 +10657,8 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/OVW Sheets/OVWDemo_productlanding.xlsx
+++ b/docs/OVW Sheets/OVWDemo_productlanding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec15\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 28\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="34" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="ja_jp" sheetId="48" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="445">
   <si>
     <t>http://www.cisco.com/web/ANZ/products/telepresence/index.html</t>
   </si>
@@ -124,9 +124,6 @@
     <t>index-var6</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ANZ/products/storage/index.html</t>
-  </si>
-  <si>
     <t>storage-networking</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>http://www.cisco.com/web/AT/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/AT/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/AT/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>http://www.cisco.com/web/BE/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -238,9 +229,6 @@
     <t>http://www.cisco.com/web/BE/fr/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/fr/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/fr/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>http://www.cisco.com/web/BE/nl/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/nl/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/nl/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -307,9 +292,6 @@
     <t>http://www.cisco.com/web/BR/produtos/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BR/produtos/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/products/telepresence/index.html</t>
   </si>
   <si>
@@ -328,9 +310,6 @@
     <t>http://www.cisco.com/web/CA/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CA/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>http://www.cisco.com/web/CA/products/security/index_fr.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CA/products/storage/index_fr.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/solutions/datacenter/index_fr.html</t>
   </si>
   <si>
@@ -388,9 +364,6 @@
     <t>http://www.cisco.com/web/CH/de/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CH/de/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CH/de/solution/datacenter/index.html</t>
   </si>
   <si>
@@ -457,9 +430,6 @@
     <t>http://www.cisco.com/web/DE/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/DE/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DE/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -487,9 +457,6 @@
     <t>http://www.cisco.com/web/DK/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/DK/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DK/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -517,9 +484,6 @@
     <t>http://www.cisco.com/web/EA/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/EA/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/EA/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -544,9 +508,6 @@
     <t>http://www.cisco.com/web/EA/products/FR/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/EA/products/FR/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/EA/solutions/FR/datacenter/index.html</t>
   </si>
   <si>
@@ -577,9 +538,6 @@
     <t>http://www.cisco.com/web/ES/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ES/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ES/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -613,9 +571,6 @@
     <t>http://www.cisco.com/web/FR/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/FR/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/FR/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -652,9 +607,6 @@
     <t>http://www.cisco.com/web/HK/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/HK/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/HK/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -682,9 +634,6 @@
     <t>http://www.cisco.com/web/HK/tc/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/HK/tc/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/HK/solution_tc/datacenter/index.html</t>
   </si>
   <si>
@@ -730,9 +679,6 @@
     <t>http://www.cisco.com/web/IL/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IL/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IL/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -760,9 +706,6 @@
     <t>http://www.cisco.com/web/IN/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IN/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IN/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -790,9 +733,6 @@
     <t>http://www.cisco.com/web/IT/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IT/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IT/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -820,9 +760,6 @@
     <t>http://www.cisco.com/web/KR/products/pc/vpndevc/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/KR/products/pc/snp/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/KR/networking/datacenter/index.html</t>
   </si>
   <si>
@@ -850,9 +787,6 @@
     <t>http://www.cisco.com/web/LA/productos/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/datacenter/index.html</t>
   </si>
   <si>
@@ -880,9 +814,6 @@
     <t>http://www.cisco.com/web/ME/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ME/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -910,9 +841,6 @@
     <t>http://www.cisco.com/web/ME/ar/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ME/ar/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/ar/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -940,9 +868,6 @@
     <t>http://www.cisco.com/web/NL/producten/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/NL/producten/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/NL/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -970,9 +895,6 @@
     <t>http://www.cisco.com/web/NO/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/NO/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/NO/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1000,9 +922,6 @@
     <t>http://www.cisco.com/web/PL/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/PL/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PL/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1030,9 +949,6 @@
     <t>http://www.cisco.com/web/PT/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/PT/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PT/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1069,9 +985,6 @@
     <t>http://www.cisco.com/web/RU/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/RU/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RU/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1099,9 +1012,6 @@
     <t>http://www.cisco.com/web/SE/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/SE/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/SE/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1129,9 +1039,6 @@
     <t>http://www.cisco.com/web/SG/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/SG/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/SG/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1159,9 +1066,6 @@
     <t>http://www.cisco.com/web/TH/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TH/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TH/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1189,9 +1093,6 @@
     <t>http://www.cisco.com/web/TR/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TR/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TR/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1219,9 +1120,6 @@
     <t>http://www.cisco.com/web/TW/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TW/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TW/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1249,9 +1147,6 @@
     <t>http://www.cisco.com/web/UA/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/UA/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/UA/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1279,9 +1174,6 @@
     <t>http://www.cisco.com/cisco/web/UK/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/cisco/web/UK/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1309,9 +1201,6 @@
     <t>http://www.cisco.com/web/ZA/products/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ZA/products/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ZA/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1339,9 +1228,6 @@
     <t>http://www.cisco.com/web/CN/products/products_netsol/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/storage_networking/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CN/solutions/datacenter/index.html</t>
   </si>
   <si>
@@ -1366,9 +1252,6 @@
     <t>http://www.cisco.com/web/JP/product/hs/security/index.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/JP/product/hs/storage/index.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/JP/solution/datacenter/index.html</t>
   </si>
   <si>
@@ -1394,132 +1277,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/BR/solucoes/borderless/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/JP/product/hs/ucs/index.html</t>
-  </si>
-  <si>
-    <t>servers-unified-computing</t>
-  </si>
-  <si>
-    <t>index-var8</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/RU/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/ar/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BR/produtos/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DE/products/unified_computing/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/FR/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/nl/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/index_fr.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/de/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/fr/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DK/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/FR/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ES/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/tc/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IL/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IN/products/unified_computing/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IT/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NO/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NL/producten/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PL/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PT/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SE/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SG/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TH/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TR/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TW/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/UA/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ZA/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ANZ/products/unified_computing/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/AT/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/fr/products/uc/index.html</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/JP/solution/isp/index.html</t>
@@ -2031,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +1803,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2060,7 +1817,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2074,7 +1831,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2088,7 +1845,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2102,7 +1859,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2116,7 +1873,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2129,87 +1886,230 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>431</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>432</v>
+      <c r="A8" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>433</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>434</v>
+      <c r="A10" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2224,210 +2124,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2450,44 +2146,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2502,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2213,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2531,7 +2227,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2545,7 +2241,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2559,7 +2255,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2573,7 +2269,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2587,7 +2283,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2601,86 +2297,588 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2696,613 +2894,6 @@
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
     <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3325,44 +2916,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3377,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,7 +2983,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3406,7 +2997,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3420,7 +3011,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3434,7 +3025,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3448,7 +3039,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3462,7 +3053,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3476,86 +3067,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3570,8 +3133,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3579,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,7 +3155,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3608,7 +3169,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3622,7 +3183,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3636,7 +3197,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3650,7 +3211,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3664,7 +3225,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3678,86 +3239,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>151</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3772,8 +3305,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3781,10 +3312,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3810,7 +3341,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -3824,7 +3355,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -3838,7 +3369,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3852,7 +3383,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3866,7 +3397,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3880,86 +3411,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3972,10 +3475,8 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A1" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A1" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3983,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,7 +3499,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4012,7 +3513,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4026,7 +3527,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4040,7 +3541,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4054,7 +3555,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4068,7 +3569,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4082,86 +3583,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4176,8 +3649,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4185,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4200,7 +3671,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4214,7 +3685,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4228,7 +3699,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4242,7 +3713,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4256,7 +3727,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4270,7 +3741,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4284,86 +3755,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>171</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4378,8 +3821,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4402,44 +3843,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4469,44 +3910,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4521,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,7 +3977,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4550,7 +3991,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4564,7 +4005,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4578,7 +4019,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4592,7 +4033,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4606,7 +4047,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4619,87 +4060,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>193</v>
+      <c r="A7" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>194</v>
+      <c r="A8" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>196</v>
+      <c r="A10" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4714,8 +4127,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4723,10 +4134,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4149,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4752,7 +4163,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4766,7 +4177,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4780,7 +4191,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4794,7 +4205,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4808,7 +4219,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4822,86 +4233,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>206</v>
+      <c r="A10" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4916,8 +4299,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4940,44 +4321,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5007,58 +4388,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5074,10 +4455,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,7 +4470,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5103,7 +4484,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5117,7 +4498,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5131,7 +4512,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5145,7 +4526,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5159,7 +4540,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5172,87 +4553,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>219</v>
+      <c r="A7" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5267,8 +4620,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5276,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,7 +4642,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5305,7 +4656,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5319,7 +4670,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5333,7 +4684,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5347,7 +4698,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5361,7 +4712,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5374,87 +4725,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>229</v>
+      <c r="A7" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>232</v>
+      <c r="A10" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5469,8 +4792,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5478,10 +4799,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,7 +4814,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5507,7 +4828,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5521,7 +4842,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5535,7 +4856,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5549,7 +4870,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5563,7 +4884,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5577,86 +4898,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>242</v>
+      <c r="A10" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5671,8 +4964,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5680,10 +4971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,7 +4986,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5709,7 +5000,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5723,7 +5014,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5737,7 +5028,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5751,7 +5042,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5765,7 +5056,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5778,87 +5069,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>402</v>
+      <c r="A7" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5873,8 +5136,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5882,10 +5143,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5158,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5911,7 +5172,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -5925,7 +5186,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -5939,7 +5200,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5953,7 +5214,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5967,7 +5228,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5981,86 +5242,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6075,8 +5308,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://www.cisco.com/web/KR/products/pc/unified_computing/services.html"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6084,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,7 +5330,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6113,7 +5344,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -6127,7 +5358,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6141,7 +5372,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6155,7 +5386,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6169,7 +5400,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -6182,87 +5413,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>269</v>
+      <c r="A7" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>272</v>
+      <c r="A10" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6277,8 +5480,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6286,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6301,7 +5502,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6315,7 +5516,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -6329,7 +5530,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6343,7 +5544,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6357,7 +5558,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6371,7 +5572,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -6384,87 +5585,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>289</v>
+      <c r="A7" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>292</v>
+      <c r="A10" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6479,8 +5652,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6488,10 +5659,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,7 +5674,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6517,7 +5688,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -6531,7 +5702,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6545,7 +5716,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6559,7 +5730,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6573,7 +5744,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -6587,86 +5758,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>300</v>
+      <c r="A8" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>302</v>
+      <c r="A10" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6681,8 +5824,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6690,10 +5831,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6705,7 +5846,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6719,7 +5860,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -6733,7 +5874,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6747,7 +5888,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6761,7 +5902,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6775,7 +5916,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -6789,86 +5930,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>310</v>
+      <c r="A8" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>311</v>
+      <c r="A9" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6883,8 +5996,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6892,10 +6003,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,7 +6018,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6921,7 +6032,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -6935,7 +6046,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -6949,7 +6060,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6963,7 +6074,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6977,7 +6088,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -6991,86 +6102,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7085,8 +6168,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7109,44 +6190,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7161,10 +6242,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7176,7 +6257,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7190,7 +6271,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -7204,7 +6285,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7218,7 +6299,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7232,7 +6313,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -7246,7 +6327,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -7259,87 +6340,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>342</v>
+      <c r="A7" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7354,8 +6407,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7363,10 +6414,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7378,7 +6429,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7392,7 +6443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -7406,7 +6457,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7420,7 +6471,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7434,7 +6485,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -7448,7 +6499,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -7462,86 +6513,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7556,8 +6579,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7565,10 +6586,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7580,7 +6601,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7594,7 +6615,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -7608,7 +6629,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7622,7 +6643,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7636,7 +6657,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -7650,7 +6671,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -7664,86 +6685,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>365</v>
+      <c r="A10" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7758,8 +6751,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7767,10 +6758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7782,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7796,7 +6787,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -7810,7 +6801,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -7824,7 +6815,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -7838,7 +6829,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -7852,7 +6843,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -7865,87 +6856,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>332</v>
+      <c r="A7" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>335</v>
+      <c r="A10" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7960,8 +6923,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7969,10 +6930,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7984,7 +6945,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7998,7 +6959,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -8012,7 +6973,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8026,7 +6987,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8040,7 +7001,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -8054,7 +7015,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8067,87 +7028,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>372</v>
+      <c r="A7" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>374</v>
+      <c r="A9" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8162,8 +7095,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8171,10 +7102,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8186,7 +7117,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8200,7 +7131,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -8214,7 +7145,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8228,7 +7159,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8242,7 +7173,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -8256,7 +7187,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8269,87 +7200,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>382</v>
+      <c r="A7" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>385</v>
+      <c r="A10" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8364,8 +7267,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8373,10 +7274,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8388,7 +7289,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8402,7 +7303,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -8416,7 +7317,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8430,7 +7331,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8444,7 +7345,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -8458,7 +7359,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8471,87 +7372,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>392</v>
+      <c r="A7" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>393</v>
+      <c r="A8" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>394</v>
+      <c r="A9" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8566,8 +7439,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8575,10 +7446,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8590,7 +7461,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8604,7 +7475,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -8618,7 +7489,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -8632,7 +7503,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -8646,7 +7517,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -8660,7 +7531,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -8674,86 +7545,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8768,8 +7611,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8793,44 +7634,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8845,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8945,86 +7786,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
+      <c r="A10" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9039,8 +7852,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9048,10 +7859,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9063,7 +7874,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9077,7 +7888,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -9091,7 +7902,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9105,7 +7916,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9119,7 +7930,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9133,7 +7944,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -9146,87 +7957,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
+      <c r="A10" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9241,8 +8024,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9250,10 +8031,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9265,7 +8046,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9279,7 +8060,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -9293,7 +8074,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9307,7 +8088,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9321,7 +8102,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9335,7 +8116,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -9349,86 +8130,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
+      <c r="A10" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9443,8 +8196,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9452,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9467,7 +8218,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9481,7 +8232,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -9495,7 +8246,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9509,7 +8260,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9523,7 +8274,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9537,7 +8288,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -9550,87 +8301,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
+      <c r="A7" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9645,8 +8368,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9654,10 +8375,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9669,7 +8390,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9683,7 +8404,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -9697,7 +8418,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9711,7 +8432,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9725,7 +8446,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9739,7 +8460,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -9752,87 +8473,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>259</v>
+      <c r="A7" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9847,8 +8540,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9856,10 +8547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9871,7 +8562,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9885,7 +8576,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -9899,7 +8590,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -9913,7 +8604,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -9927,7 +8618,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9941,7 +8632,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -9954,87 +8645,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>78</v>
+      <c r="A7" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>438</v>
+      <c r="A8" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>440</v>
+      <c r="A9" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>439</v>
+      <c r="A10" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10045,24 +8708,22 @@
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://www.cisco.com/web/BR/solucoes/datacenter/index.html"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://www.cisco.com/web/BR/solucoes/datacenter/index.html"/>
+    <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10074,7 +8735,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -10088,7 +8749,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -10102,7 +8763,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -10116,7 +8777,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -10130,7 +8791,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -10144,7 +8805,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -10157,87 +8818,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>279</v>
+      <c r="A7" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>282</v>
+      <c r="A10" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10252,8 +8885,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10261,10 +8892,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10276,7 +8907,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -10290,7 +8921,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -10304,7 +8935,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -10318,7 +8949,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -10332,7 +8963,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -10346,7 +8977,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -10359,87 +8990,59 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>128</v>
+      <c r="A7" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>130</v>
+      <c r="A9" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>131</v>
+      <c r="A10" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10454,20 +9057,18 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10479,7 +9080,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -10493,7 +9094,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -10507,7 +9108,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -10521,7 +9122,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -10535,7 +9136,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -10549,7 +9150,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -10563,86 +9164,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10657,8 +9230,6 @@
     <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
